--- a/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_马丁组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5060" yWindow="-16760" windowWidth="28240" windowHeight="13060"/>
+    <workbookView xWindow="-3120" yWindow="-17840" windowWidth="28240" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.11 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.11 新特性|Fix Bug'!$A$1:$W$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.11 新特性|Fix Bug'!$A$1:$W$17</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
   <si>
     <t>No</t>
   </si>
@@ -285,10 +285,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>系统存在同名大楼，该小区可重复添加</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>官网房东App下载页面二维码更新</t>
@@ -379,9 +375,6 @@
     <t>TOPT-675</t>
   </si>
   <si>
-    <t>DV-2407</t>
-  </si>
-  <si>
     <t>FN-405</t>
   </si>
   <si>
@@ -392,10 +385,6 @@
   </si>
   <si>
     <t>partnerPC</t>
-  </si>
-  <si>
-    <t>partnerPC</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
@@ -1040,6 +1029,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1066,9 +1058,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1441,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X168"/>
+  <dimension ref="A1:X167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1554,7 +1543,7 @@
         <v>69</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>70</v>
@@ -1576,28 +1565,28 @@
       </c>
       <c r="K2" s="53"/>
       <c r="L2" s="62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M2" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="O2" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="62" t="s">
         <v>84</v>
-      </c>
-      <c r="O2" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" s="62" t="s">
-        <v>85</v>
       </c>
       <c r="Q2" s="54">
         <v>42776</v>
       </c>
       <c r="R2" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S2" s="77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T2" s="67"/>
       <c r="U2" s="59"/>
@@ -1638,28 +1627,28 @@
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="O3" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="62" t="s">
         <v>84</v>
-      </c>
-      <c r="O3" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" s="62" t="s">
-        <v>85</v>
       </c>
       <c r="Q3" s="54">
         <v>42776</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S3" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T3" s="67"/>
       <c r="U3" s="59"/>
@@ -1700,28 +1689,28 @@
       </c>
       <c r="K4" s="53"/>
       <c r="L4" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M4" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="O4" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="62" t="s">
         <v>84</v>
-      </c>
-      <c r="O4" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" s="62" t="s">
-        <v>85</v>
       </c>
       <c r="Q4" s="54">
         <v>42776</v>
       </c>
       <c r="R4" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S4" s="77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T4" s="59"/>
       <c r="U4" s="59"/>
@@ -1746,7 +1735,7 @@
         <v>70</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G5" s="53" t="s">
         <v>76</v>
@@ -1765,25 +1754,25 @@
         <v>81</v>
       </c>
       <c r="M5" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="O5" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="62" t="s">
         <v>84</v>
-      </c>
-      <c r="O5" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="P5" s="62" t="s">
-        <v>85</v>
       </c>
       <c r="Q5" s="54">
         <v>42776</v>
       </c>
       <c r="R5" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S5" s="77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T5" s="59"/>
       <c r="U5" s="59"/>
@@ -1801,14 +1790,14 @@
       <c r="C6" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>78</v>
+      <c r="D6" s="55" t="s">
+        <v>92</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G6" s="53" t="s">
         <v>76</v>
@@ -1824,93 +1813,57 @@
       </c>
       <c r="K6" s="53"/>
       <c r="L6" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="53" t="s">
+      <c r="N6" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="O6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="62" t="s">
         <v>84</v>
-      </c>
-      <c r="O6" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" s="62" t="s">
-        <v>85</v>
       </c>
       <c r="Q6" s="54">
         <v>42776</v>
       </c>
       <c r="R6" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="S6" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
+        <v>94</v>
+      </c>
+      <c r="S6" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
       <c r="V6" s="66"/>
       <c r="W6" s="70"/>
       <c r="X6" s="69"/>
     </row>
     <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="51">
-        <v>6</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="54">
-        <v>42776</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="54">
-        <v>42776</v>
-      </c>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="53"/>
-      <c r="L7" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q7" s="54">
-        <v>42776</v>
-      </c>
-      <c r="R7" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="S7" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="66"/>
       <c r="W7" s="70"/>
       <c r="X7" s="69"/>
@@ -2012,7 +1965,7 @@
       <c r="P11" s="62"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="62"/>
-      <c r="S11" s="67"/>
+      <c r="S11" s="59"/>
       <c r="T11" s="59"/>
       <c r="U11" s="59"/>
       <c r="V11" s="66"/>
@@ -2028,7 +1981,7 @@
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
       <c r="H12" s="54"/>
-      <c r="I12" s="53"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="54"/>
       <c r="K12" s="53"/>
       <c r="L12" s="62"/>
@@ -2041,7 +1994,7 @@
       <c r="S12" s="59"/>
       <c r="T12" s="59"/>
       <c r="U12" s="59"/>
-      <c r="V12" s="66"/>
+      <c r="V12" s="59"/>
       <c r="W12" s="70"/>
       <c r="X12" s="69"/>
     </row>
@@ -2082,22 +2035,22 @@
       <c r="H14" s="54"/>
       <c r="I14" s="54"/>
       <c r="J14" s="54"/>
-      <c r="K14" s="53"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="62"/>
       <c r="M14" s="53"/>
       <c r="N14" s="53"/>
       <c r="O14" s="53"/>
-      <c r="P14" s="62"/>
+      <c r="P14" s="64"/>
       <c r="Q14" s="54"/>
-      <c r="R14" s="62"/>
+      <c r="R14" s="64"/>
       <c r="S14" s="59"/>
       <c r="T14" s="59"/>
       <c r="U14" s="59"/>
       <c r="V14" s="59"/>
-      <c r="W14" s="70"/>
+      <c r="W14" s="72"/>
       <c r="X14" s="69"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -2108,20 +2061,19 @@
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
-      <c r="K15" s="63"/>
+      <c r="K15" s="65"/>
       <c r="L15" s="62"/>
       <c r="M15" s="53"/>
       <c r="N15" s="53"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="64"/>
+      <c r="P15" s="62"/>
       <c r="Q15" s="54"/>
-      <c r="R15" s="64"/>
+      <c r="R15" s="62"/>
       <c r="S15" s="59"/>
       <c r="T15" s="59"/>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="69"/>
+      <c r="W15" s="60"/>
     </row>
     <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="51"/>
@@ -2139,7 +2091,7 @@
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="62"/>
+      <c r="P16" s="59"/>
       <c r="Q16" s="54"/>
       <c r="R16" s="62"/>
       <c r="S16" s="59"/>
@@ -2164,7 +2116,7 @@
       <c r="M17" s="53"/>
       <c r="N17" s="53"/>
       <c r="O17" s="53"/>
-      <c r="P17" s="59"/>
+      <c r="P17" s="66"/>
       <c r="Q17" s="54"/>
       <c r="R17" s="62"/>
       <c r="S17" s="59"/>
@@ -2177,26 +2129,26 @@
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="53"/>
       <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="54"/>
-      <c r="K18" s="65"/>
+      <c r="K18" s="53"/>
       <c r="L18" s="62"/>
       <c r="M18" s="53"/>
       <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="66"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
       <c r="Q18" s="54"/>
       <c r="R18" s="62"/>
       <c r="S18" s="59"/>
       <c r="T18" s="59"/>
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
-      <c r="W18" s="60"/>
+      <c r="W18" s="70"/>
     </row>
     <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="51"/>
@@ -2267,11 +2219,11 @@
       <c r="P21" s="62"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="62"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="70"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="74"/>
     </row>
     <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="51"/>
@@ -2292,10 +2244,10 @@
       <c r="P22" s="62"/>
       <c r="Q22" s="54"/>
       <c r="R22" s="62"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
       <c r="W22" s="74"/>
     </row>
     <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2310,7 +2262,7 @@
       <c r="I23" s="53"/>
       <c r="J23" s="54"/>
       <c r="K23" s="53"/>
-      <c r="L23" s="62"/>
+      <c r="L23" s="53"/>
       <c r="M23" s="53"/>
       <c r="N23" s="53"/>
       <c r="O23" s="62"/>
@@ -2320,7 +2272,7 @@
       <c r="S23" s="75"/>
       <c r="T23" s="75"/>
       <c r="U23" s="75"/>
-      <c r="V23" s="75"/>
+      <c r="V23" s="76"/>
       <c r="W23" s="74"/>
     </row>
     <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2345,7 +2297,7 @@
       <c r="S24" s="75"/>
       <c r="T24" s="75"/>
       <c r="U24" s="75"/>
-      <c r="V24" s="76"/>
+      <c r="V24" s="75"/>
       <c r="W24" s="74"/>
     </row>
     <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2360,7 +2312,7 @@
       <c r="I25" s="53"/>
       <c r="J25" s="54"/>
       <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="53"/>
       <c r="N25" s="53"/>
       <c r="O25" s="62"/>
@@ -2392,11 +2344,11 @@
       <c r="P26" s="62"/>
       <c r="Q26" s="54"/>
       <c r="R26" s="62"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="74"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="62"/>
     </row>
     <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
@@ -2417,11 +2369,11 @@
       <c r="P27" s="62"/>
       <c r="Q27" s="54"/>
       <c r="R27" s="62"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="62"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="70"/>
     </row>
     <row r="28" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
@@ -2484,7 +2436,7 @@
       <c r="H30" s="54"/>
       <c r="I30" s="53"/>
       <c r="J30" s="54"/>
-      <c r="K30" s="53"/>
+      <c r="K30" s="57"/>
       <c r="L30" s="62"/>
       <c r="M30" s="53"/>
       <c r="N30" s="53"/>
@@ -2492,36 +2444,36 @@
       <c r="P30" s="62"/>
       <c r="Q30" s="54"/>
       <c r="R30" s="62"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="70"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="75"/>
+      <c r="W30" s="74"/>
     </row>
     <row r="31" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
-      <c r="D31" s="56"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="53"/>
-      <c r="F31" s="57"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="53"/>
       <c r="H31" s="54"/>
       <c r="I31" s="53"/>
       <c r="J31" s="54"/>
-      <c r="K31" s="57"/>
+      <c r="K31" s="53"/>
       <c r="L31" s="62"/>
       <c r="M31" s="53"/>
       <c r="N31" s="53"/>
-      <c r="O31" s="62"/>
+      <c r="O31" s="53"/>
       <c r="P31" s="62"/>
       <c r="Q31" s="54"/>
       <c r="R31" s="62"/>
-      <c r="S31" s="75"/>
-      <c r="T31" s="75"/>
-      <c r="U31" s="75"/>
-      <c r="V31" s="75"/>
-      <c r="W31" s="74"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="68"/>
     </row>
     <row r="32" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
@@ -2546,7 +2498,7 @@
       <c r="T32" s="59"/>
       <c r="U32" s="59"/>
       <c r="V32" s="59"/>
-      <c r="W32" s="68"/>
+      <c r="W32" s="70"/>
     </row>
     <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
@@ -2777,25 +2729,25 @@
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="53"/>
       <c r="F42" s="53"/>
       <c r="G42" s="53"/>
       <c r="H42" s="54"/>
-      <c r="I42" s="53"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="54"/>
       <c r="K42" s="53"/>
       <c r="L42" s="62"/>
-      <c r="M42" s="53"/>
+      <c r="M42" s="62"/>
       <c r="N42" s="53"/>
       <c r="O42" s="53"/>
       <c r="P42" s="62"/>
       <c r="Q42" s="54"/>
       <c r="R42" s="62"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
       <c r="W42" s="70"/>
     </row>
     <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2827,14 +2779,14 @@
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
-      <c r="D44" s="55"/>
+      <c r="D44" s="58"/>
       <c r="E44" s="53"/>
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
       <c r="J44" s="54"/>
-      <c r="K44" s="53"/>
+      <c r="K44" s="65"/>
       <c r="L44" s="62"/>
       <c r="M44" s="62"/>
       <c r="N44" s="53"/>
@@ -2842,11 +2794,11 @@
       <c r="P44" s="62"/>
       <c r="Q44" s="54"/>
       <c r="R44" s="62"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="70"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="60"/>
     </row>
     <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="51"/>
@@ -2999,24 +2951,24 @@
       <c r="W50" s="60"/>
     </row>
     <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="53"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="59"/>
       <c r="F51" s="53"/>
       <c r="G51" s="53"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="61"/>
       <c r="K51" s="65"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
       <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="62"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="60"/>
       <c r="S51" s="59"/>
       <c r="T51" s="59"/>
       <c r="U51" s="59"/>
@@ -3405,7 +3357,7 @@
       <c r="D67" s="60"/>
       <c r="E67" s="59"/>
       <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
+      <c r="G67" s="59"/>
       <c r="H67" s="61"/>
       <c r="I67" s="59"/>
       <c r="J67" s="61"/>
@@ -3554,7 +3506,7 @@
       <c r="C73" s="59"/>
       <c r="D73" s="60"/>
       <c r="E73" s="59"/>
-      <c r="F73" s="53"/>
+      <c r="F73" s="59"/>
       <c r="G73" s="59"/>
       <c r="H73" s="61"/>
       <c r="I73" s="59"/>
@@ -3648,7 +3600,7 @@
       <c r="V76" s="59"/>
       <c r="W76" s="60"/>
     </row>
-    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A77" s="59"/>
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
@@ -3662,7 +3614,7 @@
       <c r="K77" s="65"/>
       <c r="L77" s="59"/>
       <c r="M77" s="59"/>
-      <c r="N77" s="53"/>
+      <c r="N77" s="59"/>
       <c r="O77" s="59"/>
       <c r="P77" s="59"/>
       <c r="Q77" s="61"/>
@@ -5067,10 +5019,6 @@
       <c r="P133" s="59"/>
       <c r="Q133" s="61"/>
       <c r="R133" s="60"/>
-      <c r="S133" s="59"/>
-      <c r="T133" s="59"/>
-      <c r="U133" s="59"/>
-      <c r="V133" s="59"/>
       <c r="W133" s="60"/>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.15">
@@ -5787,31 +5735,10 @@
       <c r="R167" s="60"/>
       <c r="W167" s="60"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A168" s="59"/>
-      <c r="B168" s="59"/>
-      <c r="C168" s="59"/>
-      <c r="D168" s="60"/>
-      <c r="E168" s="59"/>
-      <c r="F168" s="59"/>
-      <c r="G168" s="59"/>
-      <c r="H168" s="61"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="61"/>
-      <c r="K168" s="65"/>
-      <c r="L168" s="59"/>
-      <c r="M168" s="59"/>
-      <c r="N168" s="59"/>
-      <c r="O168" s="59"/>
-      <c r="P168" s="59"/>
-      <c r="Q168" s="61"/>
-      <c r="R168" s="60"/>
-      <c r="W168" s="60"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N76">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
@@ -5826,7 +5753,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5840,9 +5767,8 @@
     <hyperlink ref="S2" r:id="rId1"/>
     <hyperlink ref="S3" r:id="rId2"/>
     <hyperlink ref="S5" r:id="rId3"/>
-    <hyperlink ref="S6" r:id="rId4"/>
-    <hyperlink ref="S4" r:id="rId5"/>
-    <hyperlink ref="S7" r:id="rId6" tooltip="http://192.168.60.204/browse/DV-2261"/>
+    <hyperlink ref="S4" r:id="rId4"/>
+    <hyperlink ref="S6" r:id="rId5" tooltip="http://192.168.60.204/browse/DV-2261"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -6021,19 +5947,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6071,8 +5997,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6084,8 +6010,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6097,8 +6023,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6110,8 +6036,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6123,8 +6049,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6136,8 +6062,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6149,8 +6075,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6162,8 +6088,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6224,36 +6150,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6538,36 +6464,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6852,36 +6778,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7168,36 +7094,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_马丁组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-3120" yWindow="-17840" windowWidth="28240" windowHeight="13060"/>
+    <workbookView xWindow="560" yWindow="5640" windowWidth="28240" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.11 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.11 新特性|Fix Bug'!$A$1:$W$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.11 新特性|Fix Bug'!$A$1:$W$16</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -253,13 +253,6 @@
   </si>
   <si>
     <t>New Features</t>
-  </si>
-  <si>
-    <t>Bsdelete权限收回</t>
-    <rPh sb="10" eb="11">
-      <t>shou'h</t>
-    </rPh>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>BS</t>
@@ -269,13 +262,6 @@
     <t>首页预约待办事项，跳转链接优化</t>
     <rPh sb="13" eb="14">
       <t>you'hjua</t>
-    </rPh>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>renterApp，partnerApp，定时器</t>
-    <rPh sb="21" eb="22">
-      <t>ding'shi'qi</t>
     </rPh>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -346,32 +332,6 @@
     <t>能</t>
   </si>
   <si>
-    <t>大鱼</t>
-    <rPh sb="0" eb="1">
-      <t>da'yu</t>
-    </rPh>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝麻信用商户更换</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'ma</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin'yong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shagn'hu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>geng'huan</t>
-    </rPh>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>DV-2178</t>
-  </si>
-  <si>
     <t>TOPT-675</t>
   </si>
   <si>
@@ -402,6 +362,86 @@
       <t>si'cong</t>
     </rPh>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <rPh sb="0" eb="1">
+      <t>ding'shi'qi</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>依米</t>
+    <rPh sb="0" eb="1">
+      <t>yi'mi</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区录入功能优化（防止重复录入）</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lu'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong'n</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fang'zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chong'f</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>lu'ru</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻信用定时器配置更新（配置）</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ding'shi'qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bs权限相关delete权限收回</t>
+    <rPh sb="2" eb="3">
+      <t>quan'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shou'h</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2407</t>
+  </si>
+  <si>
+    <t>DV-2288</t>
   </si>
 </sst>
 </file>
@@ -1430,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X167"/>
+  <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1532,7 +1572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1543,55 +1583,55 @@
         <v>69</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>70</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>74</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>76</v>
       </c>
       <c r="H2" s="54">
         <v>42776</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J2" s="54">
         <v>42776</v>
       </c>
       <c r="K2" s="53"/>
       <c r="L2" s="62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M2" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="Q2" s="54">
+        <v>42781</v>
+      </c>
+      <c r="R2" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" s="62" t="s">
+      <c r="S2" s="77" t="s">
         <v>84</v>
-      </c>
-      <c r="Q2" s="54">
-        <v>42776</v>
-      </c>
-      <c r="R2" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="S2" s="77" t="s">
-        <v>88</v>
       </c>
       <c r="T2" s="67"/>
       <c r="U2" s="59"/>
       <c r="V2" s="66"/>
-      <c r="W2" s="68"/>
+      <c r="W2" s="70"/>
       <c r="X2" s="69"/>
     </row>
     <row r="3" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -1605,52 +1645,52 @@
         <v>69</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3" s="54">
         <v>42776</v>
       </c>
       <c r="I3" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J3" s="54">
         <v>42776</v>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="Q3" s="54">
+        <v>42781</v>
+      </c>
+      <c r="R3" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="S3" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" s="54">
-        <v>42776</v>
-      </c>
-      <c r="R3" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="S3" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="T3" s="67"/>
+      <c r="T3" s="59"/>
       <c r="U3" s="59"/>
       <c r="V3" s="66"/>
       <c r="W3" s="70"/>
@@ -1667,50 +1707,50 @@
         <v>69</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>70</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4" s="54">
         <v>42776</v>
       </c>
       <c r="I4" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J4" s="54">
         <v>42776</v>
       </c>
       <c r="K4" s="53"/>
       <c r="L4" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="N4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="Q4" s="54">
+        <v>42781</v>
+      </c>
+      <c r="R4" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" s="54">
-        <v>42776</v>
-      </c>
-      <c r="R4" s="62" t="s">
+      <c r="S4" s="77" t="s">
         <v>85</v>
-      </c>
-      <c r="S4" s="77" t="s">
-        <v>91</v>
       </c>
       <c r="T4" s="59"/>
       <c r="U4" s="59"/>
@@ -1728,54 +1768,54 @@
       <c r="C5" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>77</v>
+      <c r="D5" s="55" t="s">
+        <v>87</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5" s="54">
         <v>42776</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J5" s="54">
         <v>42776</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="O5" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" s="62" t="s">
-        <v>84</v>
-      </c>
       <c r="Q5" s="54">
-        <v>42776</v>
+        <v>42781</v>
       </c>
       <c r="R5" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="S5" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
       <c r="V5" s="66"/>
       <c r="W5" s="70"/>
       <c r="X5" s="69"/>
@@ -1790,78 +1830,114 @@
       <c r="C6" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="55" t="s">
-        <v>92</v>
+      <c r="D6" s="52" t="s">
+        <v>94</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H6" s="54">
         <v>42776</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J6" s="54">
         <v>42776</v>
       </c>
       <c r="K6" s="53"/>
       <c r="L6" s="62" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="M6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="Q6" s="54">
+        <v>42781</v>
+      </c>
+      <c r="R6" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="54">
-        <v>42776</v>
-      </c>
-      <c r="R6" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
+      <c r="S6" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
       <c r="V6" s="66"/>
       <c r="W6" s="70"/>
       <c r="X6" s="69"/>
     </row>
     <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="A7" s="51">
+        <v>6</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="54">
+        <v>42776</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="54">
+        <v>42776</v>
+      </c>
       <c r="K7" s="53"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="67"/>
+      <c r="L7" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="54">
+        <v>42781</v>
+      </c>
+      <c r="R7" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="S7" s="77" t="s">
+        <v>98</v>
+      </c>
       <c r="T7" s="59"/>
       <c r="U7" s="59"/>
       <c r="V7" s="66"/>
@@ -1939,7 +2015,7 @@
       <c r="P10" s="62"/>
       <c r="Q10" s="54"/>
       <c r="R10" s="62"/>
-      <c r="S10" s="67"/>
+      <c r="S10" s="59"/>
       <c r="T10" s="59"/>
       <c r="U10" s="59"/>
       <c r="V10" s="66"/>
@@ -1955,7 +2031,7 @@
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
       <c r="H11" s="54"/>
-      <c r="I11" s="53"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="54"/>
       <c r="K11" s="53"/>
       <c r="L11" s="62"/>
@@ -1968,7 +2044,7 @@
       <c r="S11" s="59"/>
       <c r="T11" s="59"/>
       <c r="U11" s="59"/>
-      <c r="V11" s="66"/>
+      <c r="V11" s="59"/>
       <c r="W11" s="70"/>
       <c r="X11" s="69"/>
     </row>
@@ -2009,22 +2085,22 @@
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
-      <c r="K13" s="53"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="62"/>
       <c r="M13" s="53"/>
       <c r="N13" s="53"/>
       <c r="O13" s="53"/>
-      <c r="P13" s="62"/>
+      <c r="P13" s="64"/>
       <c r="Q13" s="54"/>
-      <c r="R13" s="62"/>
+      <c r="R13" s="64"/>
       <c r="S13" s="59"/>
       <c r="T13" s="59"/>
       <c r="U13" s="59"/>
       <c r="V13" s="59"/>
-      <c r="W13" s="70"/>
+      <c r="W13" s="72"/>
       <c r="X13" s="69"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -2035,20 +2111,19 @@
       <c r="H14" s="54"/>
       <c r="I14" s="54"/>
       <c r="J14" s="54"/>
-      <c r="K14" s="63"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="62"/>
       <c r="M14" s="53"/>
       <c r="N14" s="53"/>
       <c r="O14" s="53"/>
-      <c r="P14" s="64"/>
+      <c r="P14" s="62"/>
       <c r="Q14" s="54"/>
-      <c r="R14" s="64"/>
+      <c r="R14" s="62"/>
       <c r="S14" s="59"/>
       <c r="T14" s="59"/>
       <c r="U14" s="59"/>
       <c r="V14" s="59"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="69"/>
+      <c r="W14" s="60"/>
     </row>
     <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
@@ -2066,7 +2141,7 @@
       <c r="M15" s="53"/>
       <c r="N15" s="53"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="62"/>
+      <c r="P15" s="59"/>
       <c r="Q15" s="54"/>
       <c r="R15" s="62"/>
       <c r="S15" s="59"/>
@@ -2091,7 +2166,7 @@
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="59"/>
+      <c r="P16" s="66"/>
       <c r="Q16" s="54"/>
       <c r="R16" s="62"/>
       <c r="S16" s="59"/>
@@ -2104,26 +2179,26 @@
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="53"/>
       <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="54"/>
-      <c r="K17" s="65"/>
+      <c r="K17" s="53"/>
       <c r="L17" s="62"/>
       <c r="M17" s="53"/>
       <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="66"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
       <c r="Q17" s="54"/>
       <c r="R17" s="62"/>
       <c r="S17" s="59"/>
       <c r="T17" s="59"/>
       <c r="U17" s="59"/>
       <c r="V17" s="59"/>
-      <c r="W17" s="60"/>
+      <c r="W17" s="70"/>
     </row>
     <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="51"/>
@@ -2194,11 +2269,11 @@
       <c r="P20" s="62"/>
       <c r="Q20" s="54"/>
       <c r="R20" s="62"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="70"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="74"/>
     </row>
     <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="51"/>
@@ -2219,10 +2294,10 @@
       <c r="P21" s="62"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="62"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
       <c r="W21" s="74"/>
     </row>
     <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2237,7 +2312,7 @@
       <c r="I22" s="53"/>
       <c r="J22" s="54"/>
       <c r="K22" s="53"/>
-      <c r="L22" s="62"/>
+      <c r="L22" s="53"/>
       <c r="M22" s="53"/>
       <c r="N22" s="53"/>
       <c r="O22" s="62"/>
@@ -2247,7 +2322,7 @@
       <c r="S22" s="75"/>
       <c r="T22" s="75"/>
       <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
+      <c r="V22" s="76"/>
       <c r="W22" s="74"/>
     </row>
     <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2272,7 +2347,7 @@
       <c r="S23" s="75"/>
       <c r="T23" s="75"/>
       <c r="U23" s="75"/>
-      <c r="V23" s="76"/>
+      <c r="V23" s="75"/>
       <c r="W23" s="74"/>
     </row>
     <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2287,7 +2362,7 @@
       <c r="I24" s="53"/>
       <c r="J24" s="54"/>
       <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="53"/>
       <c r="N24" s="53"/>
       <c r="O24" s="62"/>
@@ -2319,11 +2394,11 @@
       <c r="P25" s="62"/>
       <c r="Q25" s="54"/>
       <c r="R25" s="62"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="75"/>
-      <c r="V25" s="75"/>
-      <c r="W25" s="74"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="62"/>
     </row>
     <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
@@ -2344,11 +2419,11 @@
       <c r="P26" s="62"/>
       <c r="Q26" s="54"/>
       <c r="R26" s="62"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="62"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="70"/>
     </row>
     <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
@@ -2411,7 +2486,7 @@
       <c r="H29" s="54"/>
       <c r="I29" s="53"/>
       <c r="J29" s="54"/>
-      <c r="K29" s="53"/>
+      <c r="K29" s="57"/>
       <c r="L29" s="62"/>
       <c r="M29" s="53"/>
       <c r="N29" s="53"/>
@@ -2419,36 +2494,36 @@
       <c r="P29" s="62"/>
       <c r="Q29" s="54"/>
       <c r="R29" s="62"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="70"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="74"/>
     </row>
     <row r="30" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
-      <c r="D30" s="56"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="53"/>
-      <c r="F30" s="57"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="53"/>
       <c r="H30" s="54"/>
       <c r="I30" s="53"/>
       <c r="J30" s="54"/>
-      <c r="K30" s="57"/>
+      <c r="K30" s="53"/>
       <c r="L30" s="62"/>
       <c r="M30" s="53"/>
       <c r="N30" s="53"/>
-      <c r="O30" s="62"/>
+      <c r="O30" s="53"/>
       <c r="P30" s="62"/>
       <c r="Q30" s="54"/>
       <c r="R30" s="62"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="75"/>
-      <c r="U30" s="75"/>
-      <c r="V30" s="75"/>
-      <c r="W30" s="74"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="68"/>
     </row>
     <row r="31" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
@@ -2473,7 +2548,7 @@
       <c r="T31" s="59"/>
       <c r="U31" s="59"/>
       <c r="V31" s="59"/>
-      <c r="W31" s="68"/>
+      <c r="W31" s="70"/>
     </row>
     <row r="32" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
@@ -2704,25 +2779,25 @@
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
-      <c r="D41" s="52"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="53"/>
       <c r="F41" s="53"/>
       <c r="G41" s="53"/>
       <c r="H41" s="54"/>
-      <c r="I41" s="53"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="54"/>
       <c r="K41" s="53"/>
       <c r="L41" s="62"/>
-      <c r="M41" s="53"/>
+      <c r="M41" s="62"/>
       <c r="N41" s="53"/>
       <c r="O41" s="53"/>
       <c r="P41" s="62"/>
       <c r="Q41" s="54"/>
       <c r="R41" s="62"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="71"/>
+      <c r="V41" s="71"/>
       <c r="W41" s="70"/>
     </row>
     <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2754,14 +2829,14 @@
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
-      <c r="D43" s="55"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="53"/>
       <c r="F43" s="53"/>
       <c r="G43" s="53"/>
       <c r="H43" s="54"/>
       <c r="I43" s="54"/>
       <c r="J43" s="54"/>
-      <c r="K43" s="53"/>
+      <c r="K43" s="65"/>
       <c r="L43" s="62"/>
       <c r="M43" s="62"/>
       <c r="N43" s="53"/>
@@ -2769,11 +2844,11 @@
       <c r="P43" s="62"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="62"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="70"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="60"/>
     </row>
     <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="51"/>
@@ -2926,24 +3001,24 @@
       <c r="W49" s="60"/>
     </row>
     <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A50" s="51"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="53"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="59"/>
       <c r="F50" s="53"/>
       <c r="G50" s="53"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="61"/>
       <c r="K50" s="65"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
       <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="62"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="60"/>
       <c r="S50" s="59"/>
       <c r="T50" s="59"/>
       <c r="U50" s="59"/>
@@ -3332,7 +3407,7 @@
       <c r="D66" s="60"/>
       <c r="E66" s="59"/>
       <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
+      <c r="G66" s="59"/>
       <c r="H66" s="61"/>
       <c r="I66" s="59"/>
       <c r="J66" s="61"/>
@@ -3481,7 +3556,7 @@
       <c r="C72" s="59"/>
       <c r="D72" s="60"/>
       <c r="E72" s="59"/>
-      <c r="F72" s="53"/>
+      <c r="F72" s="59"/>
       <c r="G72" s="59"/>
       <c r="H72" s="61"/>
       <c r="I72" s="59"/>
@@ -3575,7 +3650,7 @@
       <c r="V75" s="59"/>
       <c r="W75" s="60"/>
     </row>
-    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A76" s="59"/>
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
@@ -3589,7 +3664,7 @@
       <c r="K76" s="65"/>
       <c r="L76" s="59"/>
       <c r="M76" s="59"/>
-      <c r="N76" s="53"/>
+      <c r="N76" s="59"/>
       <c r="O76" s="59"/>
       <c r="P76" s="59"/>
       <c r="Q76" s="61"/>
@@ -4994,10 +5069,6 @@
       <c r="P132" s="59"/>
       <c r="Q132" s="61"/>
       <c r="R132" s="60"/>
-      <c r="S132" s="59"/>
-      <c r="T132" s="59"/>
-      <c r="U132" s="59"/>
-      <c r="V132" s="59"/>
       <c r="W132" s="60"/>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.15">
@@ -5714,31 +5785,10 @@
       <c r="R166" s="60"/>
       <c r="W166" s="60"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A167" s="59"/>
-      <c r="B167" s="59"/>
-      <c r="C167" s="59"/>
-      <c r="D167" s="60"/>
-      <c r="E167" s="59"/>
-      <c r="F167" s="59"/>
-      <c r="G167" s="59"/>
-      <c r="H167" s="61"/>
-      <c r="I167" s="59"/>
-      <c r="J167" s="61"/>
-      <c r="K167" s="65"/>
-      <c r="L167" s="59"/>
-      <c r="M167" s="59"/>
-      <c r="N167" s="59"/>
-      <c r="O167" s="59"/>
-      <c r="P167" s="59"/>
-      <c r="Q167" s="61"/>
-      <c r="R167" s="60"/>
-      <c r="W167" s="60"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N75">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
@@ -5753,7 +5803,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5765,10 +5815,11 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="S3" r:id="rId2"/>
-    <hyperlink ref="S5" r:id="rId3"/>
-    <hyperlink ref="S4" r:id="rId4"/>
-    <hyperlink ref="S6" r:id="rId5" tooltip="http://192.168.60.204/browse/DV-2261"/>
+    <hyperlink ref="S4" r:id="rId2"/>
+    <hyperlink ref="S3" r:id="rId3"/>
+    <hyperlink ref="S5" r:id="rId4" tooltip="http://192.168.60.204/browse/DV-2261"/>
+    <hyperlink ref="S6" r:id="rId5"/>
+    <hyperlink ref="S7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
